--- a/database/industries/darou/detmad/product/yearly_seprated.xlsx
+++ b/database/industries/darou/detmad/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB90F0-0C28-4EC9-950C-0E7F3B1C0649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFECD7-16DC-4C0D-984F-0E7DC73512F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دتماد-تولیدمواداولیه‌داروپخش‌</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -663,16 +648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N95"/>
+  <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,13 +666,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,13 +678,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,13 +690,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,13 +700,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,13 +712,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,13 +724,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,13 +734,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -806,23 +756,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,15 +766,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -848,132 +778,82 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
         <v>1118769</v>
       </c>
-      <c r="L11" s="11">
+      <c r="G11" s="11">
         <v>1422659</v>
       </c>
-      <c r="M11" s="11">
+      <c r="H11" s="11">
         <v>1890157</v>
       </c>
-      <c r="N11" s="11">
+      <c r="I11" s="11">
         <v>1542266</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
         <v>201328</v>
       </c>
-      <c r="L12" s="13">
+      <c r="G12" s="13">
         <v>166058</v>
       </c>
-      <c r="M12" s="13">
+      <c r="H12" s="13">
         <v>350730</v>
       </c>
-      <c r="N12" s="13">
+      <c r="I12" s="13">
         <v>452707</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="11">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
         <v>774491</v>
       </c>
-      <c r="L13" s="11">
+      <c r="G13" s="11">
         <v>939156</v>
       </c>
-      <c r="M13" s="11">
+      <c r="H13" s="11">
         <v>954832</v>
       </c>
-      <c r="N13" s="11">
+      <c r="I13" s="11">
         <v>79206290</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -981,36 +861,21 @@
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>0</v>
+        <v>2094588</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>2527873</v>
       </c>
       <c r="H14" s="15">
-        <v>0</v>
+        <v>3195719</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>2094588</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2527873</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3195719</v>
-      </c>
-      <c r="N14" s="15">
         <v>81201263</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1019,132 +884,82 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="11">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11">
         <v>23080</v>
       </c>
-      <c r="L16" s="11">
+      <c r="G16" s="11">
         <v>2990</v>
       </c>
-      <c r="M16" s="11">
+      <c r="H16" s="11">
         <v>19980</v>
       </c>
-      <c r="N16" s="11">
+      <c r="I16" s="11">
         <v>30130</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="13">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13">
         <v>24702</v>
       </c>
-      <c r="L17" s="13">
+      <c r="G17" s="13">
         <v>30522</v>
       </c>
-      <c r="M17" s="13">
+      <c r="H17" s="13">
         <v>14387</v>
       </c>
-      <c r="N17" s="13">
+      <c r="I17" s="13">
         <v>19296</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="11">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11">
         <v>4332</v>
       </c>
-      <c r="M18" s="11">
+      <c r="H18" s="11">
         <v>9240</v>
       </c>
-      <c r="N18" s="11">
+      <c r="I18" s="11">
         <v>19465900</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1152,36 +967,21 @@
         <v>0</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>47782</v>
       </c>
       <c r="G19" s="15">
-        <v>0</v>
+        <v>37844</v>
       </c>
       <c r="H19" s="15">
-        <v>0</v>
+        <v>43607</v>
       </c>
       <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>47782</v>
-      </c>
-      <c r="L19" s="15">
-        <v>37844</v>
-      </c>
-      <c r="M19" s="15">
-        <v>43607</v>
-      </c>
-      <c r="N19" s="15">
         <v>19515326</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1190,15 +990,10 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1217,101 +1012,56 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>0</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0</v>
-      </c>
-      <c r="N23" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1319,34 +1069,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>2142370</v>
       </c>
       <c r="G24" s="15">
-        <v>0</v>
+        <v>2565717</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>3239326</v>
       </c>
       <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>2142370</v>
-      </c>
-      <c r="L24" s="15">
-        <v>2565717</v>
-      </c>
-      <c r="M24" s="15">
-        <v>3239326</v>
-      </c>
-      <c r="N24" s="15">
         <v>100716589</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1355,13 +1090,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1370,13 +1100,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1385,15 +1110,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1412,23 +1132,8 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1437,15 +1142,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1454,132 +1154,82 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="11">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11">
         <v>875296</v>
       </c>
-      <c r="L31" s="11">
+      <c r="G31" s="11">
         <v>1469393</v>
       </c>
-      <c r="M31" s="11">
+      <c r="H31" s="11">
         <v>4024340</v>
       </c>
-      <c r="N31" s="11">
+      <c r="I31" s="11">
         <v>5850601</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="13">
+        <v>13</v>
+      </c>
+      <c r="F32" s="13">
         <v>415998</v>
       </c>
-      <c r="L32" s="13">
+      <c r="G32" s="13">
         <v>793653</v>
       </c>
-      <c r="M32" s="13">
+      <c r="H32" s="13">
         <v>849944</v>
       </c>
-      <c r="N32" s="13">
+      <c r="I32" s="13">
         <v>1553945</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="11">
+        <v>13</v>
+      </c>
+      <c r="F33" s="11">
         <v>209254</v>
       </c>
-      <c r="L33" s="11">
+      <c r="G33" s="11">
         <v>375619</v>
       </c>
-      <c r="M33" s="11">
+      <c r="H33" s="11">
         <v>672588</v>
       </c>
-      <c r="N33" s="11">
+      <c r="I33" s="11">
         <v>811343</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1587,36 +1237,21 @@
         <v>0</v>
       </c>
       <c r="F34" s="15">
-        <v>0</v>
+        <v>1500548</v>
       </c>
       <c r="G34" s="15">
-        <v>0</v>
+        <v>2638665</v>
       </c>
       <c r="H34" s="15">
-        <v>0</v>
+        <v>5546872</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <v>1500548</v>
-      </c>
-      <c r="L34" s="15">
-        <v>2638665</v>
-      </c>
-      <c r="M34" s="15">
-        <v>5546872</v>
-      </c>
-      <c r="N34" s="15">
         <v>8215889</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1625,132 +1260,82 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="11">
+        <v>13</v>
+      </c>
+      <c r="F36" s="11">
         <v>6237</v>
       </c>
-      <c r="L36" s="11">
+      <c r="G36" s="11">
         <v>4117</v>
       </c>
-      <c r="M36" s="11">
+      <c r="H36" s="11">
         <v>25818</v>
       </c>
-      <c r="N36" s="11">
+      <c r="I36" s="11">
         <v>69300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="13">
+        <v>13</v>
+      </c>
+      <c r="F37" s="13">
         <v>583517</v>
       </c>
-      <c r="L37" s="13">
+      <c r="G37" s="13">
         <v>890538</v>
       </c>
-      <c r="M37" s="13">
+      <c r="H37" s="13">
         <v>1554659</v>
       </c>
-      <c r="N37" s="13">
+      <c r="I37" s="13">
         <v>1180976</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="11">
+        <v>13</v>
+      </c>
+      <c r="G38" s="11">
         <v>21519</v>
       </c>
-      <c r="M38" s="11">
+      <c r="H38" s="11">
         <v>163112</v>
       </c>
-      <c r="N38" s="11">
+      <c r="I38" s="11">
         <v>100761</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -1758,36 +1343,21 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>589754</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>916174</v>
       </c>
       <c r="H39" s="15">
-        <v>0</v>
+        <v>1743589</v>
       </c>
       <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <v>589754</v>
-      </c>
-      <c r="L39" s="15">
-        <v>916174</v>
-      </c>
-      <c r="M39" s="15">
-        <v>1743589</v>
-      </c>
-      <c r="N39" s="15">
         <v>1351037</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1796,15 +1366,10 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1823,103 +1388,58 @@
       <c r="I41" s="19">
         <v>0</v>
       </c>
-      <c r="J41" s="19">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19">
-        <v>0</v>
-      </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="15">
-        <v>0</v>
-      </c>
-      <c r="L42" s="15">
-        <v>0</v>
-      </c>
-      <c r="M42" s="15">
-        <v>0</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="19">
-        <v>0</v>
-      </c>
-      <c r="L43" s="19">
-        <v>0</v>
-      </c>
-      <c r="M43" s="19">
-        <v>0</v>
-      </c>
-      <c r="N43" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -1927,34 +1447,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="15">
-        <v>0</v>
+        <v>2090302</v>
       </c>
       <c r="G44" s="15">
-        <v>0</v>
+        <v>3554839</v>
       </c>
       <c r="H44" s="15">
-        <v>0</v>
+        <v>7290461</v>
       </c>
       <c r="I44" s="15">
-        <v>0</v>
-      </c>
-      <c r="J44" s="15">
-        <v>0</v>
-      </c>
-      <c r="K44" s="15">
-        <v>2090302</v>
-      </c>
-      <c r="L44" s="15">
-        <v>3554839</v>
-      </c>
-      <c r="M44" s="15">
-        <v>7290461</v>
-      </c>
-      <c r="N44" s="15">
         <v>9566926</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1963,13 +1468,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1978,13 +1478,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1993,15 +1488,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2020,23 +1510,8 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2045,15 +1520,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2062,132 +1532,82 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="11">
+        <v>13</v>
+      </c>
+      <c r="F51" s="11">
         <v>782374</v>
       </c>
-      <c r="L51" s="11">
+      <c r="G51" s="11">
         <v>1032850</v>
       </c>
-      <c r="M51" s="11">
+      <c r="H51" s="11">
         <v>2129104</v>
       </c>
-      <c r="N51" s="11">
+      <c r="I51" s="11">
         <v>3793510</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="13">
+        <v>13</v>
+      </c>
+      <c r="F52" s="13">
         <v>2066270</v>
       </c>
-      <c r="L52" s="13">
+      <c r="G52" s="13">
         <v>4779372</v>
       </c>
-      <c r="M52" s="13">
+      <c r="H52" s="13">
         <v>2423357</v>
       </c>
-      <c r="N52" s="13">
+      <c r="I52" s="13">
         <v>3432562</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="11">
+        <v>13</v>
+      </c>
+      <c r="F53" s="11">
         <v>270183</v>
       </c>
-      <c r="L53" s="11">
+      <c r="G53" s="11">
         <v>399954</v>
       </c>
-      <c r="M53" s="11">
+      <c r="H53" s="11">
         <v>704405</v>
       </c>
-      <c r="N53" s="11">
+      <c r="I53" s="11">
         <v>10243</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2196,130 +1616,80 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="11">
+        <v>13</v>
+      </c>
+      <c r="F55" s="11">
         <v>270234</v>
       </c>
-      <c r="L55" s="11">
+      <c r="G55" s="11">
         <v>1376923</v>
       </c>
-      <c r="M55" s="11">
+      <c r="H55" s="11">
         <v>1292192</v>
       </c>
-      <c r="N55" s="11">
+      <c r="I55" s="11">
         <v>2300033</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="13">
+        <v>13</v>
+      </c>
+      <c r="F56" s="13">
         <v>23622257</v>
       </c>
-      <c r="L56" s="13">
+      <c r="G56" s="13">
         <v>29176922</v>
       </c>
-      <c r="M56" s="13">
+      <c r="H56" s="13">
         <v>108059985</v>
       </c>
-      <c r="N56" s="13">
+      <c r="I56" s="13">
         <v>61203151</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="11">
+        <v>13</v>
+      </c>
+      <c r="G57" s="11">
         <v>4967452</v>
       </c>
-      <c r="M57" s="11">
+      <c r="H57" s="11">
         <v>17652814</v>
       </c>
-      <c r="N57" s="11">
+      <c r="I57" s="11">
         <v>5176</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2328,13 +1698,8 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2343,13 +1708,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2358,15 +1718,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2385,23 +1740,8 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2410,15 +1750,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2427,132 +1762,82 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="11">
+        <v>13</v>
+      </c>
+      <c r="F64" s="11">
         <v>-730796</v>
       </c>
-      <c r="L64" s="11">
+      <c r="G64" s="11">
         <v>-1006415</v>
       </c>
-      <c r="M64" s="11">
+      <c r="H64" s="11">
         <v>-2194922</v>
       </c>
-      <c r="N64" s="11">
+      <c r="I64" s="11">
         <v>-2942913</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="13">
+        <v>13</v>
+      </c>
+      <c r="F65" s="13">
         <v>-189877</v>
       </c>
-      <c r="L65" s="13">
+      <c r="G65" s="13">
         <v>-334767</v>
       </c>
-      <c r="M65" s="13">
+      <c r="H65" s="13">
         <v>-383125</v>
       </c>
-      <c r="N65" s="13">
+      <c r="I65" s="13">
         <v>-622191</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="11">
+        <v>13</v>
+      </c>
+      <c r="F66" s="11">
         <v>-84319</v>
       </c>
-      <c r="L66" s="11">
+      <c r="G66" s="11">
         <v>-215366</v>
       </c>
-      <c r="M66" s="11">
+      <c r="H66" s="11">
         <v>-322517</v>
       </c>
-      <c r="N66" s="11">
+      <c r="I66" s="11">
         <v>-478052</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -2560,36 +1845,21 @@
         <v>0</v>
       </c>
       <c r="F67" s="15">
-        <v>0</v>
+        <v>-1004992</v>
       </c>
       <c r="G67" s="15">
-        <v>0</v>
+        <v>-1556548</v>
       </c>
       <c r="H67" s="15">
-        <v>0</v>
+        <v>-2900564</v>
       </c>
       <c r="I67" s="15">
-        <v>0</v>
-      </c>
-      <c r="J67" s="15">
-        <v>0</v>
-      </c>
-      <c r="K67" s="15">
-        <v>-1004992</v>
-      </c>
-      <c r="L67" s="15">
-        <v>-1556548</v>
-      </c>
-      <c r="M67" s="15">
-        <v>-2900564</v>
-      </c>
-      <c r="N67" s="15">
         <v>-4043156</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2598,132 +1868,82 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="11">
+        <v>13</v>
+      </c>
+      <c r="F69" s="11">
         <v>-13934</v>
       </c>
-      <c r="L69" s="11">
+      <c r="G69" s="11">
         <v>-2427</v>
       </c>
-      <c r="M69" s="11">
+      <c r="H69" s="11">
         <v>-15821</v>
       </c>
-      <c r="N69" s="11">
+      <c r="I69" s="11">
         <v>-44291</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="13">
+        <v>13</v>
+      </c>
+      <c r="F70" s="13">
         <v>-186408</v>
       </c>
-      <c r="L70" s="13">
+      <c r="G70" s="13">
         <v>-404390</v>
       </c>
-      <c r="M70" s="13">
+      <c r="H70" s="13">
         <v>-270700</v>
       </c>
-      <c r="N70" s="13">
+      <c r="I70" s="13">
         <v>-268718</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="11">
+        <v>13</v>
+      </c>
+      <c r="G71" s="11">
         <v>-11381</v>
       </c>
-      <c r="M71" s="11">
+      <c r="H71" s="11">
         <v>-50528</v>
       </c>
-      <c r="N71" s="11">
+      <c r="I71" s="11">
         <v>-53203</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -2731,36 +1951,21 @@
         <v>0</v>
       </c>
       <c r="F72" s="15">
-        <v>0</v>
+        <v>-200342</v>
       </c>
       <c r="G72" s="15">
-        <v>0</v>
+        <v>-418198</v>
       </c>
       <c r="H72" s="15">
-        <v>0</v>
+        <v>-337049</v>
       </c>
       <c r="I72" s="15">
-        <v>0</v>
-      </c>
-      <c r="J72" s="15">
-        <v>0</v>
-      </c>
-      <c r="K72" s="15">
-        <v>-200342</v>
-      </c>
-      <c r="L72" s="15">
-        <v>-418198</v>
-      </c>
-      <c r="M72" s="15">
-        <v>-337049</v>
-      </c>
-      <c r="N72" s="15">
         <v>-366212</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -2769,15 +1974,10 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -2796,103 +1996,58 @@
       <c r="I74" s="19">
         <v>0</v>
       </c>
-      <c r="J74" s="19">
-        <v>0</v>
-      </c>
-      <c r="K74" s="19">
-        <v>0</v>
-      </c>
-      <c r="L74" s="19">
-        <v>0</v>
-      </c>
-      <c r="M74" s="19">
-        <v>0</v>
-      </c>
-      <c r="N74" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>0</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="15">
-        <v>0</v>
-      </c>
-      <c r="L75" s="15">
-        <v>0</v>
-      </c>
-      <c r="M75" s="15">
-        <v>0</v>
-      </c>
-      <c r="N75" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="19">
-        <v>0</v>
-      </c>
-      <c r="L76" s="19">
-        <v>0</v>
-      </c>
-      <c r="M76" s="19">
-        <v>0</v>
-      </c>
-      <c r="N76" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F76" s="19">
+        <v>0</v>
+      </c>
+      <c r="G76" s="19">
+        <v>0</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0</v>
+      </c>
+      <c r="I76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -2900,34 +2055,19 @@
         <v>0</v>
       </c>
       <c r="F77" s="15">
-        <v>0</v>
+        <v>-1205334</v>
       </c>
       <c r="G77" s="15">
-        <v>0</v>
+        <v>-1974746</v>
       </c>
       <c r="H77" s="15">
-        <v>0</v>
+        <v>-3237613</v>
       </c>
       <c r="I77" s="15">
-        <v>0</v>
-      </c>
-      <c r="J77" s="15">
-        <v>0</v>
-      </c>
-      <c r="K77" s="15">
-        <v>-1205334</v>
-      </c>
-      <c r="L77" s="15">
-        <v>-1974746</v>
-      </c>
-      <c r="M77" s="15">
-        <v>-3237613</v>
-      </c>
-      <c r="N77" s="15">
         <v>-4409368</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2936,13 +2076,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2951,13 +2086,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2966,15 +2096,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2993,23 +2118,8 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3018,15 +2128,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -3035,132 +2140,82 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="11">
+        <v>13</v>
+      </c>
+      <c r="F84" s="11">
         <v>144500</v>
       </c>
-      <c r="L84" s="11">
+      <c r="G84" s="11">
         <v>462978</v>
       </c>
-      <c r="M84" s="11">
+      <c r="H84" s="11">
         <v>1829418</v>
       </c>
-      <c r="N84" s="11">
+      <c r="I84" s="11">
         <v>2907688</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="13">
+        <v>13</v>
+      </c>
+      <c r="F85" s="13">
         <v>226121</v>
       </c>
-      <c r="L85" s="13">
+      <c r="G85" s="13">
         <v>458886</v>
       </c>
-      <c r="M85" s="13">
+      <c r="H85" s="13">
         <v>466819</v>
       </c>
-      <c r="N85" s="13">
+      <c r="I85" s="13">
         <v>931754</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="11">
+        <v>13</v>
+      </c>
+      <c r="F86" s="11">
         <v>124935</v>
       </c>
-      <c r="L86" s="11">
+      <c r="G86" s="11">
         <v>160253</v>
       </c>
-      <c r="M86" s="11">
+      <c r="H86" s="11">
         <v>350071</v>
       </c>
-      <c r="N86" s="11">
+      <c r="I86" s="11">
         <v>333291</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -3168,36 +2223,21 @@
         <v>0</v>
       </c>
       <c r="F87" s="15">
-        <v>0</v>
+        <v>495556</v>
       </c>
       <c r="G87" s="15">
-        <v>0</v>
+        <v>1082117</v>
       </c>
       <c r="H87" s="15">
-        <v>0</v>
+        <v>2646308</v>
       </c>
       <c r="I87" s="15">
-        <v>0</v>
-      </c>
-      <c r="J87" s="15">
-        <v>0</v>
-      </c>
-      <c r="K87" s="15">
-        <v>495556</v>
-      </c>
-      <c r="L87" s="15">
-        <v>1082117</v>
-      </c>
-      <c r="M87" s="15">
-        <v>2646308</v>
-      </c>
-      <c r="N87" s="15">
         <v>4172733</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -3206,132 +2246,82 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" s="11">
+        <v>13</v>
+      </c>
+      <c r="F89" s="11">
         <v>-7697</v>
       </c>
-      <c r="L89" s="11">
+      <c r="G89" s="11">
         <v>1690</v>
       </c>
-      <c r="M89" s="11">
+      <c r="H89" s="11">
         <v>9997</v>
       </c>
-      <c r="N89" s="11">
+      <c r="I89" s="11">
         <v>25009</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" s="13">
+        <v>13</v>
+      </c>
+      <c r="F90" s="13">
         <v>397109</v>
       </c>
-      <c r="L90" s="13">
+      <c r="G90" s="13">
         <v>486148</v>
       </c>
-      <c r="M90" s="13">
+      <c r="H90" s="13">
         <v>1283959</v>
       </c>
-      <c r="N90" s="13">
+      <c r="I90" s="13">
         <v>912258</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L91" s="11">
+        <v>13</v>
+      </c>
+      <c r="G91" s="11">
         <v>10138</v>
       </c>
-      <c r="M91" s="11">
+      <c r="H91" s="11">
         <v>112584</v>
       </c>
-      <c r="N91" s="11">
+      <c r="I91" s="11">
         <v>47558</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -3339,36 +2329,21 @@
         <v>0</v>
       </c>
       <c r="F92" s="15">
-        <v>0</v>
+        <v>389412</v>
       </c>
       <c r="G92" s="15">
-        <v>0</v>
+        <v>497976</v>
       </c>
       <c r="H92" s="15">
-        <v>0</v>
+        <v>1406540</v>
       </c>
       <c r="I92" s="15">
-        <v>0</v>
-      </c>
-      <c r="J92" s="15">
-        <v>0</v>
-      </c>
-      <c r="K92" s="15">
-        <v>389412</v>
-      </c>
-      <c r="L92" s="15">
-        <v>497976</v>
-      </c>
-      <c r="M92" s="15">
-        <v>1406540</v>
-      </c>
-      <c r="N92" s="15">
         <v>984825</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -3377,15 +2352,10 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -3404,25 +2374,10 @@
       <c r="I94" s="19">
         <v>0</v>
       </c>
-      <c r="J94" s="19">
-        <v>0</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0</v>
-      </c>
-      <c r="L94" s="19">
-        <v>0</v>
-      </c>
-      <c r="M94" s="19">
-        <v>0</v>
-      </c>
-      <c r="N94" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -3430,30 +2385,15 @@
         <v>0</v>
       </c>
       <c r="F95" s="15">
-        <v>0</v>
+        <v>884968</v>
       </c>
       <c r="G95" s="15">
-        <v>0</v>
+        <v>1580093</v>
       </c>
       <c r="H95" s="15">
-        <v>0</v>
+        <v>4052848</v>
       </c>
       <c r="I95" s="15">
-        <v>0</v>
-      </c>
-      <c r="J95" s="15">
-        <v>0</v>
-      </c>
-      <c r="K95" s="15">
-        <v>884968</v>
-      </c>
-      <c r="L95" s="15">
-        <v>1580093</v>
-      </c>
-      <c r="M95" s="15">
-        <v>4052848</v>
-      </c>
-      <c r="N95" s="15">
         <v>5157558</v>
       </c>
     </row>

--- a/database/industries/darou/detmad/product/yearly_seprated.xlsx
+++ b/database/industries/darou/detmad/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFECD7-16DC-4C0D-984F-0E7DC73512F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3004B11-8FBC-4C92-8297-F6B67A9A33F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,24 +61,24 @@
     <t>کیلوگرم</t>
   </si>
   <si>
+    <t>نارکوتیکها</t>
+  </si>
+  <si>
+    <t>محصول نهایی</t>
+  </si>
+  <si>
+    <t>بطری/عدد</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>نارکوتیکها</t>
-  </si>
-  <si>
-    <t>محصول نهایی</t>
-  </si>
-  <si>
-    <t>لیتر</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
     <t>جمع فروش خارجی</t>
   </si>
   <si>
@@ -124,7 +124,7 @@
     <t>کیلوگرم / ریال</t>
   </si>
   <si>
-    <t>لیتر / ریال</t>
+    <t>بطری/عدد / ریال</t>
   </si>
   <si>
     <t>نرخ فروش خارجی</t>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -787,95 +787,95 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>1118769</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1422659</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1890157</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1542266</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1764571</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1118769</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1422659</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1890157</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1542266</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>201328</v>
       </c>
       <c r="F12" s="13">
-        <v>201328</v>
+        <v>166058</v>
       </c>
       <c r="G12" s="13">
-        <v>166058</v>
+        <v>350730</v>
       </c>
       <c r="H12" s="13">
-        <v>350730</v>
+        <v>452707</v>
       </c>
       <c r="I12" s="13">
-        <v>452707</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>216990</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>774491</v>
+      </c>
+      <c r="F13" s="11">
+        <v>939156</v>
+      </c>
+      <c r="G13" s="11">
+        <v>954832</v>
+      </c>
+      <c r="H13" s="11">
+        <v>79206290</v>
+      </c>
+      <c r="I13" s="11">
+        <v>66006118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11">
-        <v>774491</v>
-      </c>
-      <c r="G13" s="11">
-        <v>939156</v>
-      </c>
-      <c r="H13" s="11">
-        <v>954832</v>
-      </c>
-      <c r="I13" s="11">
-        <v>79206290</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>2094588</v>
       </c>
       <c r="F14" s="15">
-        <v>2094588</v>
+        <v>2527873</v>
       </c>
       <c r="G14" s="15">
-        <v>2527873</v>
+        <v>3195719</v>
       </c>
       <c r="H14" s="15">
-        <v>3195719</v>
+        <v>81201263</v>
       </c>
       <c r="I14" s="15">
-        <v>81201263</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67987679</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -885,7 +885,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -893,93 +893,93 @@
         <v>12</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="11">
+        <v>23080</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2990</v>
+      </c>
+      <c r="G16" s="11">
+        <v>19980</v>
+      </c>
+      <c r="H16" s="11">
+        <v>30130</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F16" s="11">
-        <v>23080</v>
-      </c>
-      <c r="G16" s="11">
-        <v>2990</v>
-      </c>
-      <c r="H16" s="11">
-        <v>19980</v>
-      </c>
-      <c r="I16" s="11">
-        <v>30130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>13</v>
+      <c r="E17" s="13">
+        <v>24702</v>
       </c>
       <c r="F17" s="13">
-        <v>24702</v>
+        <v>30522</v>
       </c>
       <c r="G17" s="13">
-        <v>30522</v>
+        <v>14387</v>
       </c>
       <c r="H17" s="13">
-        <v>14387</v>
+        <v>19296</v>
       </c>
       <c r="I17" s="13">
-        <v>19296</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23522</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F18" s="11">
+        <v>4332</v>
       </c>
       <c r="G18" s="11">
-        <v>4332</v>
+        <v>9240</v>
       </c>
       <c r="H18" s="11">
-        <v>9240</v>
+        <v>19465900</v>
       </c>
       <c r="I18" s="11">
-        <v>19465900</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>47782</v>
       </c>
       <c r="F19" s="15">
-        <v>47782</v>
+        <v>37844</v>
       </c>
       <c r="G19" s="15">
-        <v>37844</v>
+        <v>43607</v>
       </c>
       <c r="H19" s="15">
-        <v>43607</v>
+        <v>19515326</v>
       </c>
       <c r="I19" s="15">
-        <v>19515326</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23522</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
@@ -1021,8 +1021,8 @@
         <v>23</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
+      <c r="E22" s="15">
+        <v>0</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -1030,21 +1030,21 @@
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
+      <c r="H22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
+      <c r="E23" s="19">
+        <v>0</v>
       </c>
       <c r="F23" s="19">
         <v>0</v>
@@ -1059,29 +1059,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>2142370</v>
       </c>
       <c r="F24" s="15">
-        <v>2142370</v>
+        <v>2565717</v>
       </c>
       <c r="G24" s="15">
-        <v>2565717</v>
+        <v>3239326</v>
       </c>
       <c r="H24" s="15">
-        <v>3239326</v>
+        <v>100716589</v>
       </c>
       <c r="I24" s="15">
-        <v>100716589</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68011201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1091,7 +1091,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1101,7 +1101,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1111,7 +1111,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1163,93 +1163,93 @@
         <v>28</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11">
+        <v>875296</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1469393</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4024340</v>
+      </c>
+      <c r="H31" s="11">
+        <v>5850601</v>
+      </c>
+      <c r="I31" s="11">
+        <v>9273090</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F31" s="11">
-        <v>875296</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1469393</v>
-      </c>
-      <c r="H31" s="11">
-        <v>4024340</v>
-      </c>
-      <c r="I31" s="11">
-        <v>5850601</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
+      <c r="E32" s="13">
+        <v>415998</v>
       </c>
       <c r="F32" s="13">
-        <v>415998</v>
+        <v>793653</v>
       </c>
       <c r="G32" s="13">
-        <v>793653</v>
+        <v>849944</v>
       </c>
       <c r="H32" s="13">
-        <v>849944</v>
+        <v>1553945</v>
       </c>
       <c r="I32" s="13">
-        <v>1553945</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>682776</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>209254</v>
       </c>
       <c r="F33" s="11">
-        <v>209254</v>
+        <v>375619</v>
       </c>
       <c r="G33" s="11">
-        <v>375619</v>
+        <v>672588</v>
       </c>
       <c r="H33" s="11">
-        <v>672588</v>
+        <v>811343</v>
       </c>
       <c r="I33" s="11">
-        <v>811343</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1514676</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>0</v>
+        <v>1500548</v>
       </c>
       <c r="F34" s="15">
-        <v>1500548</v>
+        <v>2638665</v>
       </c>
       <c r="G34" s="15">
-        <v>2638665</v>
+        <v>5546872</v>
       </c>
       <c r="H34" s="15">
-        <v>5546872</v>
+        <v>8215889</v>
       </c>
       <c r="I34" s="15">
-        <v>8215889</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11470542</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1269,93 +1269,93 @@
         <v>28</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11">
+        <v>6237</v>
+      </c>
+      <c r="F36" s="11">
+        <v>4117</v>
+      </c>
+      <c r="G36" s="11">
+        <v>25818</v>
+      </c>
+      <c r="H36" s="11">
+        <v>69300</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F36" s="11">
-        <v>6237</v>
-      </c>
-      <c r="G36" s="11">
-        <v>4117</v>
-      </c>
-      <c r="H36" s="11">
-        <v>25818</v>
-      </c>
-      <c r="I36" s="11">
-        <v>69300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>583517</v>
       </c>
       <c r="F37" s="13">
-        <v>583517</v>
+        <v>890538</v>
       </c>
       <c r="G37" s="13">
-        <v>890538</v>
+        <v>1554659</v>
       </c>
       <c r="H37" s="13">
-        <v>1554659</v>
+        <v>1180976</v>
       </c>
       <c r="I37" s="13">
-        <v>1180976</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1613998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F38" s="11">
+        <v>21519</v>
       </c>
       <c r="G38" s="11">
-        <v>21519</v>
+        <v>163112</v>
       </c>
       <c r="H38" s="11">
-        <v>163112</v>
+        <v>100761</v>
       </c>
       <c r="I38" s="11">
-        <v>100761</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>589754</v>
       </c>
       <c r="F39" s="15">
-        <v>589754</v>
+        <v>916174</v>
       </c>
       <c r="G39" s="15">
-        <v>916174</v>
+        <v>1743589</v>
       </c>
       <c r="H39" s="15">
-        <v>1743589</v>
+        <v>1351037</v>
       </c>
       <c r="I39" s="15">
-        <v>1351037</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1613998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>22</v>
       </c>
@@ -1397,8 +1397,8 @@
         <v>28</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
@@ -1406,14 +1406,14 @@
       <c r="G42" s="15">
         <v>0</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
+      <c r="H42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>24</v>
       </c>
@@ -1421,8 +1421,8 @@
         <v>28</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>13</v>
+      <c r="E43" s="19">
+        <v>0</v>
       </c>
       <c r="F43" s="19">
         <v>0</v>
@@ -1437,29 +1437,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>2090302</v>
       </c>
       <c r="F44" s="15">
-        <v>2090302</v>
+        <v>3554839</v>
       </c>
       <c r="G44" s="15">
-        <v>3554839</v>
+        <v>7290461</v>
       </c>
       <c r="H44" s="15">
-        <v>7290461</v>
+        <v>9566926</v>
       </c>
       <c r="I44" s="15">
-        <v>9566926</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13084540</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1469,7 +1469,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1489,7 +1489,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1521,7 +1521,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1541,71 +1541,71 @@
         <v>33</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="11">
+        <v>782374</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1032850</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2129104</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3793510</v>
+      </c>
+      <c r="I51" s="11">
+        <v>5255153</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F51" s="11">
-        <v>782374</v>
-      </c>
-      <c r="G51" s="11">
-        <v>1032850</v>
-      </c>
-      <c r="H51" s="11">
-        <v>2129104</v>
-      </c>
-      <c r="I51" s="11">
-        <v>3793510</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>13</v>
+      <c r="E52" s="13">
+        <v>2066270</v>
       </c>
       <c r="F52" s="13">
-        <v>2066270</v>
+        <v>4779372</v>
       </c>
       <c r="G52" s="13">
-        <v>4779372</v>
+        <v>2423357</v>
       </c>
       <c r="H52" s="13">
-        <v>2423357</v>
+        <v>3432562</v>
       </c>
       <c r="I52" s="13">
-        <v>3432562</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3146578</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>13</v>
+      <c r="E53" s="11">
+        <v>270183</v>
       </c>
       <c r="F53" s="11">
-        <v>270183</v>
+        <v>399954</v>
       </c>
       <c r="G53" s="11">
-        <v>399954</v>
+        <v>704405</v>
       </c>
       <c r="H53" s="11">
-        <v>704405</v>
+        <v>10243</v>
       </c>
       <c r="I53" s="11">
-        <v>10243</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22948</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>35</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1625,71 +1625,71 @@
         <v>33</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11">
+        <v>270234</v>
+      </c>
+      <c r="F55" s="11">
+        <v>1376923</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1292192</v>
+      </c>
+      <c r="H55" s="11">
+        <v>2300033</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" s="11">
-        <v>270234</v>
-      </c>
-      <c r="G55" s="11">
-        <v>1376923</v>
-      </c>
-      <c r="H55" s="11">
-        <v>1292192</v>
-      </c>
-      <c r="I55" s="11">
-        <v>2300033</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
+      <c r="E56" s="13">
+        <v>23622257</v>
       </c>
       <c r="F56" s="13">
-        <v>23622257</v>
+        <v>29176922</v>
       </c>
       <c r="G56" s="13">
-        <v>29176922</v>
+        <v>108059985</v>
       </c>
       <c r="H56" s="13">
-        <v>108059985</v>
+        <v>61203151</v>
       </c>
       <c r="I56" s="13">
-        <v>61203151</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68616529</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F57" s="11">
+        <v>4967452</v>
       </c>
       <c r="G57" s="11">
-        <v>4967452</v>
+        <v>17652814</v>
       </c>
       <c r="H57" s="11">
-        <v>17652814</v>
+        <v>5176</v>
       </c>
       <c r="I57" s="11">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1699,7 +1699,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1719,7 +1719,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>36</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1751,7 +1751,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1771,93 +1771,93 @@
         <v>28</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11">
+        <v>-730796</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-1006415</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-2194922</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-2942913</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-5076138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F64" s="11">
-        <v>-730796</v>
-      </c>
-      <c r="G64" s="11">
-        <v>-1006415</v>
-      </c>
-      <c r="H64" s="11">
-        <v>-2194922</v>
-      </c>
-      <c r="I64" s="11">
-        <v>-2942913</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>-189877</v>
       </c>
       <c r="F65" s="13">
-        <v>-189877</v>
+        <v>-334767</v>
       </c>
       <c r="G65" s="13">
-        <v>-334767</v>
+        <v>-383125</v>
       </c>
       <c r="H65" s="13">
-        <v>-383125</v>
+        <v>-622191</v>
       </c>
       <c r="I65" s="13">
-        <v>-622191</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-542893</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
+      <c r="E66" s="11">
+        <v>-84319</v>
       </c>
       <c r="F66" s="11">
-        <v>-84319</v>
+        <v>-215366</v>
       </c>
       <c r="G66" s="11">
-        <v>-215366</v>
+        <v>-322517</v>
       </c>
       <c r="H66" s="11">
-        <v>-322517</v>
+        <v>-478052</v>
       </c>
       <c r="I66" s="11">
-        <v>-478052</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-882503</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>0</v>
+        <v>-1004992</v>
       </c>
       <c r="F67" s="15">
-        <v>-1004992</v>
+        <v>-1556548</v>
       </c>
       <c r="G67" s="15">
-        <v>-1556548</v>
+        <v>-2900564</v>
       </c>
       <c r="H67" s="15">
-        <v>-2900564</v>
+        <v>-4043156</v>
       </c>
       <c r="I67" s="15">
-        <v>-4043156</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6501534</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>39</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1877,93 +1877,93 @@
         <v>28</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="11">
+        <v>-13934</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-2427</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-15821</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-44291</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F69" s="11">
-        <v>-13934</v>
-      </c>
-      <c r="G69" s="11">
-        <v>-2427</v>
-      </c>
-      <c r="H69" s="11">
-        <v>-15821</v>
-      </c>
-      <c r="I69" s="11">
-        <v>-44291</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>-186408</v>
       </c>
       <c r="F70" s="13">
-        <v>-186408</v>
+        <v>-404390</v>
       </c>
       <c r="G70" s="13">
-        <v>-404390</v>
+        <v>-270700</v>
       </c>
       <c r="H70" s="13">
-        <v>-270700</v>
+        <v>-268718</v>
       </c>
       <c r="I70" s="13">
-        <v>-268718</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-467304</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-11381</v>
       </c>
       <c r="G71" s="11">
-        <v>-11381</v>
+        <v>-50528</v>
       </c>
       <c r="H71" s="11">
-        <v>-50528</v>
+        <v>-53203</v>
       </c>
       <c r="I71" s="11">
-        <v>-53203</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>-200342</v>
       </c>
       <c r="F72" s="15">
-        <v>-200342</v>
+        <v>-418198</v>
       </c>
       <c r="G72" s="15">
-        <v>-418198</v>
+        <v>-337049</v>
       </c>
       <c r="H72" s="15">
-        <v>-337049</v>
+        <v>-366212</v>
       </c>
       <c r="I72" s="15">
-        <v>-366212</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-467304</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>41</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>22</v>
       </c>
@@ -2005,8 +2005,8 @@
         <v>28</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
       </c>
       <c r="F75" s="15">
         <v>0</v>
@@ -2014,14 +2014,14 @@
       <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
+      <c r="H75" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>24</v>
       </c>
@@ -2029,8 +2029,8 @@
         <v>28</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>13</v>
+      <c r="E76" s="19">
+        <v>0</v>
       </c>
       <c r="F76" s="19">
         <v>0</v>
@@ -2045,29 +2045,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>0</v>
+        <v>-1205334</v>
       </c>
       <c r="F77" s="15">
-        <v>-1205334</v>
+        <v>-1974746</v>
       </c>
       <c r="G77" s="15">
-        <v>-1974746</v>
+        <v>-3237613</v>
       </c>
       <c r="H77" s="15">
-        <v>-3237613</v>
+        <v>-4409368</v>
       </c>
       <c r="I77" s="15">
-        <v>-4409368</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6968838</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2077,7 +2077,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2087,7 +2087,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>43</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>44</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2149,93 +2149,93 @@
         <v>28</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11">
+        <v>144500</v>
+      </c>
+      <c r="F84" s="11">
+        <v>462978</v>
+      </c>
+      <c r="G84" s="11">
+        <v>1829418</v>
+      </c>
+      <c r="H84" s="11">
+        <v>2907688</v>
+      </c>
+      <c r="I84" s="11">
+        <v>4196952</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F84" s="11">
-        <v>144500</v>
-      </c>
-      <c r="G84" s="11">
-        <v>462978</v>
-      </c>
-      <c r="H84" s="11">
-        <v>1829418</v>
-      </c>
-      <c r="I84" s="11">
-        <v>2907688</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
+      <c r="E85" s="13">
+        <v>226121</v>
       </c>
       <c r="F85" s="13">
-        <v>226121</v>
+        <v>458886</v>
       </c>
       <c r="G85" s="13">
-        <v>458886</v>
+        <v>466819</v>
       </c>
       <c r="H85" s="13">
-        <v>466819</v>
+        <v>931754</v>
       </c>
       <c r="I85" s="13">
-        <v>931754</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139883</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
+      <c r="E86" s="11">
+        <v>124935</v>
       </c>
       <c r="F86" s="11">
-        <v>124935</v>
+        <v>160253</v>
       </c>
       <c r="G86" s="11">
-        <v>160253</v>
+        <v>350071</v>
       </c>
       <c r="H86" s="11">
-        <v>350071</v>
+        <v>333291</v>
       </c>
       <c r="I86" s="11">
-        <v>333291</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>632173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>495556</v>
       </c>
       <c r="F87" s="15">
-        <v>495556</v>
+        <v>1082117</v>
       </c>
       <c r="G87" s="15">
-        <v>1082117</v>
+        <v>2646308</v>
       </c>
       <c r="H87" s="15">
-        <v>2646308</v>
+        <v>4172733</v>
       </c>
       <c r="I87" s="15">
-        <v>4172733</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4969008</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>46</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2255,93 +2255,93 @@
         <v>28</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="11">
+        <v>-7697</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1690</v>
+      </c>
+      <c r="G89" s="11">
+        <v>9997</v>
+      </c>
+      <c r="H89" s="11">
+        <v>25009</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F89" s="11">
-        <v>-7697</v>
-      </c>
-      <c r="G89" s="11">
-        <v>1690</v>
-      </c>
-      <c r="H89" s="11">
-        <v>9997</v>
-      </c>
-      <c r="I89" s="11">
-        <v>25009</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>13</v>
+      <c r="E90" s="13">
+        <v>397109</v>
       </c>
       <c r="F90" s="13">
-        <v>397109</v>
+        <v>486148</v>
       </c>
       <c r="G90" s="13">
-        <v>486148</v>
+        <v>1283959</v>
       </c>
       <c r="H90" s="13">
-        <v>1283959</v>
+        <v>912258</v>
       </c>
       <c r="I90" s="13">
-        <v>912258</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1146694</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F91" s="11">
+        <v>10138</v>
       </c>
       <c r="G91" s="11">
-        <v>10138</v>
+        <v>112584</v>
       </c>
       <c r="H91" s="11">
-        <v>112584</v>
+        <v>47558</v>
       </c>
       <c r="I91" s="11">
-        <v>47558</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>389412</v>
       </c>
       <c r="F92" s="15">
-        <v>389412</v>
+        <v>497976</v>
       </c>
       <c r="G92" s="15">
-        <v>497976</v>
+        <v>1406540</v>
       </c>
       <c r="H92" s="15">
-        <v>1406540</v>
+        <v>984825</v>
       </c>
       <c r="I92" s="15">
-        <v>984825</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1146694</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>48</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>49</v>
       </c>
@@ -2375,26 +2375,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>884968</v>
       </c>
       <c r="F95" s="15">
-        <v>884968</v>
+        <v>1580093</v>
       </c>
       <c r="G95" s="15">
-        <v>1580093</v>
+        <v>4052848</v>
       </c>
       <c r="H95" s="15">
-        <v>4052848</v>
+        <v>5157558</v>
       </c>
       <c r="I95" s="15">
-        <v>5157558</v>
+        <v>6115702</v>
       </c>
     </row>
   </sheetData>
